--- a/bb.xlsx
+++ b/bb.xlsx
@@ -282,6 +282,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{8011CE03-0000-0000-0100-000000000000}"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
